--- a/Replication Package/documentation/rider-audits/baseline-study/codebooks/ride.xlsx
+++ b/Replication Package/documentation/rider-audits/baseline-study/codebooks/ride.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb501238\Documents\GitHub\rio_vagao_rosa\documentation\rider-audits\baseline-study\codebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB84097F-007E-48B7-A6E9-6A37211D4734}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716A28C7-B0F9-460A-BE12-EE4F8B113F2F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="114">
   <si>
     <t>name</t>
   </si>
@@ -331,9 +331,6 @@
   </si>
   <si>
     <t>Ride - did you choose location to avoid crowd?</t>
-  </si>
-  <si>
-    <t>(1 = .05)  (2 = .2) (3 = .4) (4 = .6) (5 = .8) (6= .95)</t>
   </si>
   <si>
     <t>Unique ride ID</t>
@@ -715,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -822,7 +819,7 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -1005,7 +1002,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
@@ -1573,7 +1570,7 @@
         <v>49</v>
       </c>
       <c r="I30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1601,9 +1598,6 @@
       <c r="H31" t="s">
         <v>50</v>
       </c>
-      <c r="I31" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
@@ -1694,43 +1688,38 @@
     </row>
     <row r="35" spans="1:9">
       <c r="E35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="E36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="E37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="E38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="E39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="E40" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" t="s">
-        <v>113</v>
-      </c>
-      <c r="B41" t="s">
-        <v>114</v>
-      </c>
-      <c r="E41" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
